--- a/resources/excel/uk-digitall-charity.xlsx
+++ b/resources/excel/uk-digitall-charity.xlsx
@@ -2146,10 +2146,10 @@
         <v>29</v>
       </c>
       <c r="O9" s="15">
+        <v>-37.81501</v>
+      </c>
+      <c r="P9" s="15">
         <v>175.55904</v>
-      </c>
-      <c r="P9" s="15">
-        <v>-37.81501</v>
       </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
@@ -2198,10 +2198,10 @@
         <v>29</v>
       </c>
       <c r="O10" s="15">
+        <v>-2.43208</v>
+      </c>
+      <c r="P10" s="15">
         <v>53.69688</v>
-      </c>
-      <c r="P10" s="15">
-        <v>-2.43208</v>
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
@@ -2250,10 +2250,10 @@
         <v>29</v>
       </c>
       <c r="O11" s="15">
+        <v>-7.58865</v>
+      </c>
+      <c r="P11" s="15">
         <v>54.71167</v>
-      </c>
-      <c r="P11" s="15">
-        <v>-7.58865</v>
       </c>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
@@ -2302,10 +2302,10 @@
         <v>29</v>
       </c>
       <c r="O12" s="15">
+        <v>-3.02676</v>
+      </c>
+      <c r="P12" s="15">
         <v>53.36812</v>
-      </c>
-      <c r="P12" s="15">
-        <v>-3.02676</v>
       </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
@@ -2354,10 +2354,10 @@
         <v>29</v>
       </c>
       <c r="O13" s="15">
+        <v>-5.93904</v>
+      </c>
+      <c r="P13" s="15">
         <v>54.5826</v>
-      </c>
-      <c r="P13" s="15">
-        <v>-5.93904</v>
       </c>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
@@ -2406,10 +2406,10 @@
         <v>29</v>
       </c>
       <c r="O14" s="15">
+        <v>-3.2928</v>
+      </c>
+      <c r="P14" s="15">
         <v>50.75045</v>
-      </c>
-      <c r="P14" s="15">
-        <v>-3.2928</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
@@ -2458,10 +2458,10 @@
         <v>29</v>
       </c>
       <c r="O15" s="15">
+        <v>14.88318</v>
+      </c>
+      <c r="P15" s="15">
         <v>40.6384</v>
-      </c>
-      <c r="P15" s="15">
-        <v>14.88318</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
@@ -2510,10 +2510,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15">
+        <v>-99.19399</v>
+      </c>
+      <c r="P16" s="15">
         <v>41.40916</v>
-      </c>
-      <c r="P16" s="15">
-        <v>-99.19399</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
@@ -2562,10 +2562,10 @@
         <v>29</v>
       </c>
       <c r="O17" s="15">
+        <v>-5.92075</v>
+      </c>
+      <c r="P17" s="15">
         <v>54.26554</v>
-      </c>
-      <c r="P17" s="15">
-        <v>-5.92075</v>
       </c>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O18" s="15">
+        <v>-0.12189</v>
+      </c>
+      <c r="P18" s="15">
         <v>51.61655</v>
-      </c>
-      <c r="P18" s="15">
-        <v>-0.12189</v>
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
@@ -2666,10 +2666,10 @@
         <v>29</v>
       </c>
       <c r="O19" s="15">
+        <v>-5.72761</v>
+      </c>
+      <c r="P19" s="15">
         <v>54.33053</v>
-      </c>
-      <c r="P19" s="15">
-        <v>-5.72761</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
@@ -2718,10 +2718,10 @@
         <v>29</v>
       </c>
       <c r="O20" s="15">
+        <v>174.69156</v>
+      </c>
+      <c r="P20" s="15">
         <v>-36.74272</v>
-      </c>
-      <c r="P20" s="15">
-        <v>174.69156</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
@@ -2770,10 +2770,10 @@
         <v>29</v>
       </c>
       <c r="O21" s="15">
+        <v>-1.0468</v>
+      </c>
+      <c r="P21" s="15">
         <v>51.47334</v>
-      </c>
-      <c r="P21" s="15">
-        <v>-1.0468</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
@@ -2822,10 +2822,10 @@
         <v>29</v>
       </c>
       <c r="O22" s="15">
+        <v>175.85802</v>
+      </c>
+      <c r="P22" s="15">
         <v>-38.21792</v>
-      </c>
-      <c r="P22" s="15">
-        <v>175.85802</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
@@ -2874,10 +2874,10 @@
         <v>29</v>
       </c>
       <c r="O23" s="15">
+        <v>176.89224</v>
+      </c>
+      <c r="P23" s="15">
         <v>-39.66431</v>
-      </c>
-      <c r="P23" s="15">
-        <v>176.89224</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
@@ -2926,10 +2926,10 @@
         <v>29</v>
       </c>
       <c r="O24" s="15">
+        <v>-16.93144</v>
+      </c>
+      <c r="P24" s="15">
         <v>32.66007</v>
-      </c>
-      <c r="P24" s="15">
-        <v>-16.93144</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
@@ -2978,10 +2978,10 @@
         <v>29</v>
       </c>
       <c r="O25" s="15">
+        <v>-1.60859</v>
+      </c>
+      <c r="P25" s="15">
         <v>53.83408</v>
-      </c>
-      <c r="P25" s="15">
-        <v>-1.60859</v>
       </c>
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
@@ -3030,10 +3030,10 @@
         <v>29</v>
       </c>
       <c r="O26" s="15">
+        <v>-5.76238</v>
+      </c>
+      <c r="P26" s="15">
         <v>54.55027</v>
-      </c>
-      <c r="P26" s="15">
-        <v>-5.76238</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
@@ -3082,10 +3082,10 @@
         <v>29</v>
       </c>
       <c r="O27" s="15">
+        <v>-1.47654</v>
+      </c>
+      <c r="P27" s="15">
         <v>53.82016</v>
-      </c>
-      <c r="P27" s="15">
-        <v>-1.47654</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
@@ -3134,10 +3134,10 @@
         <v>29</v>
       </c>
       <c r="O28" s="15">
+        <v>-0.971</v>
+      </c>
+      <c r="P28" s="15">
         <v>51.39897</v>
-      </c>
-      <c r="P28" s="15">
-        <v>-0.971</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
@@ -3186,10 +3186,10 @@
         <v>29</v>
       </c>
       <c r="O29" s="15">
+        <v>-6.2178</v>
+      </c>
+      <c r="P29" s="15">
         <v>54.61153</v>
-      </c>
-      <c r="P29" s="15">
-        <v>-6.2178</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
@@ -3238,10 +3238,10 @@
         <v>29</v>
       </c>
       <c r="O30" s="15">
+        <v>-1.63316</v>
+      </c>
+      <c r="P30" s="15">
         <v>54.98366</v>
-      </c>
-      <c r="P30" s="15">
-        <v>-1.63316</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
@@ -3290,10 +3290,10 @@
         <v>29</v>
       </c>
       <c r="O31" s="15">
+        <v>173.19311</v>
+      </c>
+      <c r="P31" s="15">
         <v>-41.3394</v>
-      </c>
-      <c r="P31" s="15">
-        <v>173.19311</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
@@ -3342,10 +3342,10 @@
         <v>29</v>
       </c>
       <c r="O32" s="15">
+        <v>-6.1903</v>
+      </c>
+      <c r="P32" s="15">
         <v>54.71295</v>
-      </c>
-      <c r="P32" s="15">
-        <v>-6.1903</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
@@ -3394,10 +3394,10 @@
         <v>29</v>
       </c>
       <c r="O33" s="15">
+        <v>-8.29438</v>
+      </c>
+      <c r="P33" s="15">
         <v>51.9108</v>
-      </c>
-      <c r="P33" s="15">
-        <v>-8.29438</v>
       </c>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
@@ -3446,10 +3446,10 @@
         <v>29</v>
       </c>
       <c r="O34" s="15">
+        <v>-1.35648</v>
+      </c>
+      <c r="P34" s="15">
         <v>54.15133</v>
-      </c>
-      <c r="P34" s="15">
-        <v>-1.35648</v>
       </c>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
@@ -3498,10 +3498,10 @@
         <v>29</v>
       </c>
       <c r="O35" s="15">
+        <v>-7.26503</v>
+      </c>
+      <c r="P35" s="15">
         <v>54.57983</v>
-      </c>
-      <c r="P35" s="15">
-        <v>-7.26503</v>
       </c>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
@@ -3550,10 +3550,10 @@
         <v>29</v>
       </c>
       <c r="O36" s="15">
+        <v>-1.96667</v>
+      </c>
+      <c r="P36" s="15">
         <v>52.67866</v>
-      </c>
-      <c r="P36" s="15">
-        <v>-1.96667</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
@@ -3602,10 +3602,10 @@
         <v>29</v>
       </c>
       <c r="O37" s="15">
+        <v>-0.81064</v>
+      </c>
+      <c r="P37" s="15">
         <v>51.33623</v>
-      </c>
-      <c r="P37" s="15">
-        <v>-0.81064</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -3654,10 +3654,10 @@
         <v>29</v>
       </c>
       <c r="O38" s="15">
+        <v>172.39118</v>
+      </c>
+      <c r="P38" s="15">
         <v>-43.61592</v>
-      </c>
-      <c r="P38" s="15">
-        <v>172.39118</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -3706,10 +3706,10 @@
         <v>29</v>
       </c>
       <c r="O39" s="15">
+        <v>-7.71709</v>
+      </c>
+      <c r="P39" s="15">
         <v>54.99017</v>
-      </c>
-      <c r="P39" s="15">
-        <v>-7.71709</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
@@ -3758,10 +3758,10 @@
         <v>29</v>
       </c>
       <c r="O40" s="15">
+        <v>-6.65801</v>
+      </c>
+      <c r="P40" s="15">
         <v>55.18179</v>
-      </c>
-      <c r="P40" s="15">
-        <v>-6.65801</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -3810,10 +3810,10 @@
         <v>29</v>
       </c>
       <c r="O41" s="15">
+        <v>-0.14383</v>
+      </c>
+      <c r="P41" s="15">
         <v>50.86237</v>
-      </c>
-      <c r="P41" s="15">
-        <v>-0.14383</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -3862,10 +3862,10 @@
         <v>29</v>
       </c>
       <c r="O42" s="15">
+        <v>25.73308</v>
+      </c>
+      <c r="P42" s="15">
         <v>66.48741</v>
-      </c>
-      <c r="P42" s="15">
-        <v>25.73308</v>
       </c>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O43" s="15">
+        <v>-6.62845</v>
+      </c>
+      <c r="P43" s="15">
         <v>54.88474</v>
-      </c>
-      <c r="P43" s="15">
-        <v>-6.62845</v>
       </c>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
@@ -3966,10 +3966,10 @@
         <v>29</v>
       </c>
       <c r="O44" s="15">
+        <v>-5.90587</v>
+      </c>
+      <c r="P44" s="15">
         <v>54.67755</v>
-      </c>
-      <c r="P44" s="15">
-        <v>-5.90587</v>
       </c>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
@@ -4018,10 +4018,10 @@
         <v>29</v>
       </c>
       <c r="O45" s="15">
+        <v>-3.93576</v>
+      </c>
+      <c r="P45" s="15">
         <v>51.66133</v>
-      </c>
-      <c r="P45" s="15">
-        <v>-3.93576</v>
       </c>
       <c r="Q45" s="16"/>
       <c r="R45" s="16"/>
@@ -4070,10 +4070,10 @@
         <v>29</v>
       </c>
       <c r="O46" s="15">
+        <v>-2.15564</v>
+      </c>
+      <c r="P46" s="15">
         <v>53.86397</v>
-      </c>
-      <c r="P46" s="15">
-        <v>-2.15564</v>
       </c>
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
@@ -4122,10 +4122,10 @@
         <v>29</v>
       </c>
       <c r="O47" s="15">
+        <v>-1.9023</v>
+      </c>
+      <c r="P47" s="15">
         <v>52.43116</v>
-      </c>
-      <c r="P47" s="15">
-        <v>-1.9023</v>
       </c>
       <c r="Q47" s="16"/>
       <c r="R47" s="16"/>
@@ -4174,10 +4174,10 @@
         <v>29</v>
       </c>
       <c r="O48" s="15">
+        <v>-6.37922</v>
+      </c>
+      <c r="P48" s="15">
         <v>54.88086</v>
-      </c>
-      <c r="P48" s="15">
-        <v>-6.37922</v>
       </c>
       <c r="Q48" s="16"/>
       <c r="R48" s="16"/>
@@ -4226,10 +4226,10 @@
         <v>29</v>
       </c>
       <c r="O49" s="15">
+        <v>74.38444</v>
+      </c>
+      <c r="P49" s="15">
         <v>31.54773</v>
-      </c>
-      <c r="P49" s="15">
-        <v>74.38444</v>
       </c>
       <c r="Q49" s="16"/>
       <c r="R49" s="16"/>
@@ -4278,10 +4278,10 @@
         <v>29</v>
       </c>
       <c r="O50" s="15">
+        <v>0.46203</v>
+      </c>
+      <c r="P50" s="15">
         <v>50.98623</v>
-      </c>
-      <c r="P50" s="15">
-        <v>0.46203</v>
       </c>
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
@@ -4330,10 +4330,10 @@
         <v>29</v>
       </c>
       <c r="O51" s="15">
+        <v>0.4179</v>
+      </c>
+      <c r="P51" s="15">
         <v>51.51131</v>
-      </c>
-      <c r="P51" s="15">
-        <v>0.4179</v>
       </c>
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
@@ -4382,10 +4382,10 @@
         <v>29</v>
       </c>
       <c r="O52" s="15">
+        <v>-2.76472</v>
+      </c>
+      <c r="P52" s="15">
         <v>53.36135</v>
-      </c>
-      <c r="P52" s="15">
-        <v>-2.76472</v>
       </c>
       <c r="Q52" s="16"/>
       <c r="R52" s="16"/>
@@ -4434,10 +4434,10 @@
         <v>29</v>
       </c>
       <c r="O53" s="15">
+        <v>-72.44041</v>
+      </c>
+      <c r="P53" s="15">
         <v>41.77547</v>
-      </c>
-      <c r="P53" s="15">
-        <v>-72.44041</v>
       </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
@@ -4486,10 +4486,10 @@
         <v>29</v>
       </c>
       <c r="O54" s="15">
+        <v>-0.46041</v>
+      </c>
+      <c r="P54" s="15">
         <v>51.37477</v>
-      </c>
-      <c r="P54" s="15">
-        <v>-0.46041</v>
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
@@ -4538,10 +4538,10 @@
         <v>29</v>
       </c>
       <c r="O55" s="15">
+        <v>-6.00705</v>
+      </c>
+      <c r="P55" s="15">
         <v>54.75456</v>
-      </c>
-      <c r="P55" s="15">
-        <v>-6.00705</v>
       </c>
       <c r="Q55" s="16"/>
       <c r="R55" s="16"/>
@@ -4590,10 +4590,10 @@
         <v>29</v>
       </c>
       <c r="O56" s="15">
+        <v>-0.26562</v>
+      </c>
+      <c r="P56" s="15">
         <v>51.66698</v>
-      </c>
-      <c r="P56" s="15">
-        <v>-0.26562</v>
       </c>
       <c r="Q56" s="16"/>
       <c r="R56" s="16"/>
@@ -4642,10 +4642,10 @@
         <v>29</v>
       </c>
       <c r="O57" s="15">
+        <v>-3.10692</v>
+      </c>
+      <c r="P57" s="15">
         <v>51.01354</v>
-      </c>
-      <c r="P57" s="15">
-        <v>-3.10692</v>
       </c>
       <c r="Q57" s="16"/>
       <c r="R57" s="16"/>
@@ -4694,10 +4694,10 @@
         <v>29</v>
       </c>
       <c r="O58" s="15">
+        <v>-2.07877</v>
+      </c>
+      <c r="P58" s="15">
         <v>51.36413</v>
-      </c>
-      <c r="P58" s="15">
-        <v>-2.07877</v>
       </c>
       <c r="Q58" s="16"/>
       <c r="R58" s="16"/>
@@ -4746,10 +4746,10 @@
         <v>29</v>
       </c>
       <c r="O59" s="15">
+        <v>73.81419</v>
+      </c>
+      <c r="P59" s="15">
         <v>15.49011</v>
-      </c>
-      <c r="P59" s="15">
-        <v>73.81419</v>
       </c>
       <c r="Q59" s="16"/>
       <c r="R59" s="16"/>
@@ -4798,10 +4798,10 @@
         <v>29</v>
       </c>
       <c r="O60" s="15">
+        <v>-1.09256</v>
+      </c>
+      <c r="P60" s="15">
         <v>51.26331</v>
-      </c>
-      <c r="P60" s="15">
-        <v>-1.09256</v>
       </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
@@ -4850,10 +4850,10 @@
         <v>29</v>
       </c>
       <c r="O61" s="15">
+        <v>-4.03105</v>
+      </c>
+      <c r="P61" s="15">
         <v>50.38011</v>
-      </c>
-      <c r="P61" s="15">
-        <v>-4.03105</v>
       </c>
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
@@ -4902,10 +4902,10 @@
         <v>29</v>
       </c>
       <c r="O62" s="15">
+        <v>-6.41415</v>
+      </c>
+      <c r="P62" s="15">
         <v>55.00502</v>
-      </c>
-      <c r="P62" s="15">
-        <v>-6.41415</v>
       </c>
       <c r="Q62" s="16"/>
       <c r="R62" s="16"/>
@@ -4954,10 +4954,10 @@
         <v>29</v>
       </c>
       <c r="O63" s="15">
+        <v>-7.25312</v>
+      </c>
+      <c r="P63" s="15">
         <v>54.51691</v>
-      </c>
-      <c r="P63" s="15">
-        <v>-7.25312</v>
       </c>
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
@@ -5006,10 +5006,10 @@
         <v>29</v>
       </c>
       <c r="O64" s="15">
+        <v>-2.4783</v>
+      </c>
+      <c r="P64" s="15">
         <v>53.70213</v>
-      </c>
-      <c r="P64" s="15">
-        <v>-2.4783</v>
       </c>
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
@@ -5058,10 +5058,10 @@
         <v>29</v>
       </c>
       <c r="O65" s="15">
+        <v>-0.46033</v>
+      </c>
+      <c r="P65" s="15">
         <v>51.37471</v>
-      </c>
-      <c r="P65" s="15">
-        <v>-0.46033</v>
       </c>
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
@@ -5110,10 +5110,10 @@
         <v>29</v>
       </c>
       <c r="O66" s="15">
+        <v>-0.60648</v>
+      </c>
+      <c r="P66" s="15">
         <v>51.4981</v>
-      </c>
-      <c r="P66" s="15">
-        <v>-0.60648</v>
       </c>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
@@ -5162,10 +5162,10 @@
         <v>29</v>
       </c>
       <c r="O67" s="15">
+        <v>24.70075</v>
+      </c>
+      <c r="P67" s="15">
         <v>60.16224</v>
-      </c>
-      <c r="P67" s="15">
-        <v>24.70075</v>
       </c>
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
@@ -5214,10 +5214,10 @@
         <v>29</v>
       </c>
       <c r="O68" s="15">
+        <v>-0.02965</v>
+      </c>
+      <c r="P68" s="15">
         <v>51.4518</v>
-      </c>
-      <c r="P68" s="15">
-        <v>-0.02965</v>
       </c>
       <c r="Q68" s="16"/>
       <c r="R68" s="16"/>
@@ -5266,10 +5266,10 @@
         <v>29</v>
       </c>
       <c r="O69" s="15">
+        <v>175.01578</v>
+      </c>
+      <c r="P69" s="15">
         <v>-37.24779</v>
-      </c>
-      <c r="P69" s="15">
-        <v>175.01578</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
@@ -5318,10 +5318,10 @@
         <v>29</v>
       </c>
       <c r="O70" s="15">
+        <v>-2.34362</v>
+      </c>
+      <c r="P70" s="15">
         <v>51.3866</v>
-      </c>
-      <c r="P70" s="15">
-        <v>-2.34362</v>
       </c>
       <c r="Q70" s="16"/>
       <c r="R70" s="16"/>
